--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,84 @@
   </si>
   <si>
     <t>char(80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>自增</t>
+  </si>
+  <si>
+    <t>非空</t>
+  </si>
+  <si>
+    <t>轮播图排序顺序,从小到大的排序</t>
+  </si>
+  <si>
+    <t>轮播图管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图图片的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击轮播图之后前往的对应的商品分类的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +676,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -649,8 +734,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -670,6 +758,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,15 +770,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -976,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -990,31 +1079,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="23.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1243,17 +1332,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="2" t="s">
@@ -1377,17 +1466,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="25.5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1540,14 +1629,14 @@
       <c r="I32" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" t="s">
         <v>28</v>
       </c>
@@ -1721,17 +1810,17 @@
       <c r="F47" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="25.5">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" ht="18.75">
       <c r="A53" s="2" t="s">
@@ -2003,8 +2092,135 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
+    <row r="67" spans="1:9" ht="30" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A67:I67"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A4:I4"/>

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,35 +533,17 @@
     <t>id</t>
   </si>
   <si>
-    <t>自增</t>
-  </si>
-  <si>
-    <t>非空</t>
-  </si>
-  <si>
     <t>轮播图排序顺序,从小到大的排序</t>
   </si>
   <si>
-    <t>轮播图管理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自增id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,15 +572,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击轮播图之后前往的对应的商品分类的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_turn表(轮播图管理表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,13 +748,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1068,7 +1058,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1079,31 +1069,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="23.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1332,17 +1322,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="2" t="s">
@@ -1466,17 +1456,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="25.5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1810,17 +1800,17 @@
       <c r="F47" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="25.5">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="18.75">
       <c r="A53" s="2" t="s">
@@ -2093,59 +2083,69 @@
       <c r="I64" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="A67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="24.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
@@ -2154,69 +2154,69 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1">
       <c r="A72" s="1">
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="E72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -572,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击轮播图之后前往的对应的商品分类的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,6 +585,10 @@
   </si>
   <si>
     <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="67" spans="1:9" ht="30" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>6</v>
@@ -2200,10 +2200,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>97</v>
@@ -2215,7 +2215,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,50 @@
   </si>
   <si>
     <t>权限验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_turn表(轮播图管理表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图排序顺序,从小到大的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图图片的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击轮播图之后前往的对应的商品分类的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +553,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -566,12 +633,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,12 +660,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,21 +669,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -902,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -916,44 +998,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="23.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1182,17 +1264,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -1312,17 +1394,17 @@
       <c r="I21" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="25.5">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1401,172 +1483,302 @@
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1"/>
     <row r="29" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>2</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>4</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="7">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="A35" s="5">
         <v>5</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="27" customHeight="1"/>
-    <row r="37" spans="1:9" ht="27" customHeight="1"/>
-    <row r="38" spans="1:9" ht="27" customHeight="1"/>
-    <row r="39" spans="1:9" ht="27" customHeight="1"/>
-    <row r="40" spans="1:9" ht="27" customHeight="1"/>
-    <row r="41" spans="1:9" ht="27" customHeight="1"/>
-    <row r="42" spans="1:9" ht="27" customHeight="1"/>
+    <row r="37" spans="1:9" ht="27" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" customHeight="1">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="27" customHeight="1">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27" customHeight="1">
+      <c r="A41" s="5">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27" customHeight="1">
+      <c r="A42" s="5">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="43" spans="1:9" ht="27" customHeight="1"/>
     <row r="44" spans="1:9" ht="27" customHeight="1"/>
-    <row r="45" spans="1:9" ht="27" customHeight="1"/>
+    <row r="51" ht="27" customHeight="1"/>
     <row r="52" ht="27" customHeight="1"/>
     <row r="53" ht="27" customHeight="1"/>
     <row r="54" ht="27" customHeight="1"/>
@@ -1577,9 +1789,9 @@
     <row r="59" ht="27" customHeight="1"/>
     <row r="60" ht="27" customHeight="1"/>
     <row r="61" ht="27" customHeight="1"/>
-    <row r="62" ht="27" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A37:I37"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A3:I3"/>

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,84 @@
   </si>
   <si>
     <t>点击轮播图之后前往的对应的商品分类的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>友情链接图片地址</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>链接url地址</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>链接开关</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <r>
+      <t>0位关闭，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1位开启</t>
+    </r>
+  </si>
+  <si>
+    <t>friendly_link（友情链接管理表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +711,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,8 +724,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,30 +756,60 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="6"/>
     <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4 2" xfId="5"/>
+    <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -986,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -998,31 +1115,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -1711,7 +1828,7 @@
       <c r="A40" s="5">
         <v>2</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -1777,20 +1894,175 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="27" customHeight="1"/>
-    <row r="44" spans="1:9" ht="27" customHeight="1"/>
-    <row r="51" ht="27" customHeight="1"/>
-    <row r="52" ht="27" customHeight="1"/>
-    <row r="53" ht="27" customHeight="1"/>
-    <row r="54" ht="27" customHeight="1"/>
-    <row r="55" ht="27" customHeight="1"/>
-    <row r="56" ht="27" customHeight="1"/>
-    <row r="57" ht="27" customHeight="1"/>
-    <row r="58" ht="27" customHeight="1"/>
-    <row r="59" ht="27" customHeight="1"/>
-    <row r="60" ht="27" customHeight="1"/>
-    <row r="61" ht="27" customHeight="1"/>
+    <row r="44" spans="1:9" ht="27" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A46" s="16">
+        <v>1</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A47" s="16">
+        <v>2</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A48" s="16">
+        <v>3</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A49" s="16">
+        <v>4</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" ht="23.25" customHeight="1">
+      <c r="A50" s="16">
+        <v>5</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16">
+        <v>1</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27" customHeight="1"/>
+    <row r="52" spans="1:9" ht="27" customHeight="1"/>
+    <row r="53" spans="1:9" ht="27" customHeight="1"/>
+    <row r="54" spans="1:9" ht="27" customHeight="1"/>
+    <row r="55" spans="1:9" ht="27" customHeight="1"/>
+    <row r="56" spans="1:9" ht="27" customHeight="1"/>
+    <row r="57" spans="1:9" ht="27" customHeight="1"/>
+    <row r="58" spans="1:9" ht="27" customHeight="1"/>
+    <row r="59" spans="1:9" ht="27" customHeight="1"/>
+    <row r="60" spans="1:9" ht="27" customHeight="1"/>
+    <row r="61" spans="1:9" ht="27" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A29:I29"/>

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,83 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> information（公告管理表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告链接开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess（用户评论表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（255）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价1最低，评价5最高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +836,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,30 +879,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:I50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1115,44 +1198,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="23.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1381,17 +1464,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -1511,17 +1594,17 @@
       <c r="I21" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="25.5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1600,17 +1683,17 @@
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1"/>
     <row r="29" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -1758,17 +1841,17 @@
     </row>
     <row r="36" spans="1:9" ht="27" customHeight="1"/>
     <row r="37" spans="1:9" ht="27" customHeight="1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -1895,173 +1978,476 @@
     </row>
     <row r="43" spans="1:9" ht="27" customHeight="1"/>
     <row r="44" spans="1:9" ht="27" customHeight="1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="9">
         <v>1</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="9">
         <v>2</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="9">
         <v>3</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="9">
         <v>4</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="9">
         <v>5</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="27" customHeight="1"/>
-    <row r="52" spans="1:9" ht="27" customHeight="1"/>
-    <row r="53" spans="1:9" ht="27" customHeight="1"/>
-    <row r="54" spans="1:9" ht="27" customHeight="1"/>
-    <row r="55" spans="1:9" ht="27" customHeight="1"/>
-    <row r="56" spans="1:9" ht="27" customHeight="1"/>
-    <row r="57" spans="1:9" ht="27" customHeight="1"/>
+    <row r="52" spans="1:9" ht="27" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27" customHeight="1">
+      <c r="A54" s="9">
+        <v>1</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" ht="27" customHeight="1">
+      <c r="A55" s="9">
+        <v>2</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" ht="27" customHeight="1">
+      <c r="A56" s="9">
+        <v>3</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" ht="27" customHeight="1">
+      <c r="A57" s="9">
+        <v>5</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="58" spans="1:9" ht="27" customHeight="1"/>
-    <row r="59" spans="1:9" ht="27" customHeight="1"/>
-    <row r="60" spans="1:9" ht="27" customHeight="1"/>
-    <row r="61" spans="1:9" ht="27" customHeight="1"/>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A59" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A61" s="5">
+        <v>1</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A62" s="5">
+        <v>2</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A64" s="5">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5">
+        <v>5</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A65" s="5">
+        <v>5</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A66" s="5">
+        <v>6</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A59:I59"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A1:I1"/>

--- a/Public/Common/数据字典模板.xlsx
+++ b/Public/Common/数据字典模板.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,55 @@
   </si>
   <si>
     <t>评价1最低，评价5最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address（收货地址表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>收货人号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,6 +906,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,12 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1184,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1198,44 +1247,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="23.1" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1464,17 +1513,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -1594,17 +1643,17 @@
       <c r="I21" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="25.5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1683,17 +1732,17 @@
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1"/>
     <row r="29" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1">
       <c r="A30" s="6" t="s">
@@ -1841,17 +1890,17 @@
     </row>
     <row r="36" spans="1:9" ht="27" customHeight="1"/>
     <row r="37" spans="1:9" ht="27" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" ht="27" customHeight="1">
       <c r="A38" s="6" t="s">
@@ -1978,17 +2027,17 @@
     </row>
     <row r="43" spans="1:9" ht="27" customHeight="1"/>
     <row r="44" spans="1:9" ht="27" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="23.25" customHeight="1">
       <c r="A45" s="10" t="s">
@@ -2134,17 +2183,17 @@
     </row>
     <row r="51" spans="1:9" ht="27" customHeight="1"/>
     <row r="52" spans="1:9" ht="27" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="27" customHeight="1">
       <c r="A53" s="10" t="s">
@@ -2204,10 +2253,10 @@
       <c r="A55" s="9">
         <v>2</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -2225,7 +2274,7 @@
       <c r="A56" s="9">
         <v>3</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -2246,7 +2295,7 @@
       <c r="A57" s="9">
         <v>5</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -2269,17 +2318,17 @@
     </row>
     <row r="58" spans="1:9" ht="27" customHeight="1"/>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
       <c r="A60" s="6" t="s">
@@ -2444,8 +2493,181 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
+    <row r="68" spans="1:9" s="4" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A68" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A70" s="5">
+        <v>1</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A71" s="5">
+        <v>2</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A73" s="5">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A74" s="5">
+        <v>5</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" s="4" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A75" s="5">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A68:I68"/>
     <mergeCell ref="A52:I52"/>
     <mergeCell ref="A59:I59"/>
     <mergeCell ref="A44:I44"/>
